--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3621.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3621.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.260566102806602</v>
+        <v>1.751303672790527</v>
       </c>
       <c r="B1">
-        <v>2.210668528305148</v>
+        <v>2.738831520080566</v>
       </c>
       <c r="C1">
-        <v>2.907336757925456</v>
+        <v>3.394014596939087</v>
       </c>
       <c r="D1">
-        <v>3.297901473558993</v>
+        <v>1.299905776977539</v>
       </c>
       <c r="E1">
-        <v>1.250362109198733</v>
+        <v>0.8641474843025208</v>
       </c>
     </row>
   </sheetData>
